--- a/schedule/IMG-20230129-WA0001.xlsx
+++ b/schedule/IMG-20230129-WA0001.xlsx
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,7 +490,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -498,11 +498,7 @@
           <t>ERROR</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>ERROR</t>
@@ -517,12 +513,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +540,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,12 +567,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -598,17 +594,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ISAAC S SANCHEZ</t>
+          <t>ISAAC SANCHEZ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -625,12 +621,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -652,12 +648,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -679,12 +675,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -706,12 +702,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -733,7 +729,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saturday Saturday_ February 4_ 2023</t>
+          <t>Saturday Saturday_ February 2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -741,11 +737,7 @@
           <t>ERROR</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>ERROR</t>
@@ -760,7 +752,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -768,11 +760,7 @@
           <t>ERROR</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>ERROR</t>
@@ -787,12 +775,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -814,12 +802,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -841,12 +829,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -868,12 +856,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -895,17 +883,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ISAAC S SANCHEZ</t>
+          <t>ISAAC SANCHEZ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -922,12 +910,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -949,12 +937,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -976,12 +964,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1003,12 +991,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1030,12 +1018,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sunday Sunday_ February 6_ 2023</t>
+          <t>Sunday Sunday_ February 2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
